--- a/uploads/الالفى.xlsx
+++ b/uploads/الالفى.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmahmoud\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE4AD864-B531-4125-BF6C-91E63C0B565D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213D91BF-DBDB-4031-91BB-0137E54DF487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{AC2DF367-F161-4030-B592-955A54D7DFF7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
   <si>
     <t>م</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>اسراء شاكر اسماعيل متولى محمد</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -667,7 +673,7 @@
   <dimension ref="A1:XFD13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -805,19 +811,33 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
       <c r="E2" s="7">
         <v>28810082301302</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -856,19 +876,33 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
       <c r="E3" s="7">
         <v>28501211403203</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -907,17 +941,27 @@
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
       <c r="E4" s="7">
         <v>27007120101605</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -958,7 +1002,9 @@
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
       <c r="E5" s="7">
         <v>30501091402584</v>
       </c>
@@ -968,8 +1014,12 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1009,7 +1059,9 @@
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
       <c r="E6" s="7">
         <v>28306250106502</v>
       </c>
@@ -1017,8 +1069,12 @@
         <v>13</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -1060,7 +1116,9 @@
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>12</v>
+      </c>
       <c r="E7" s="7">
         <v>29402010106621</v>
       </c>
@@ -1070,7 +1128,9 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1111,7 +1171,9 @@
       <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>14</v>
+      </c>
       <c r="E8" s="7">
         <v>27504220103161</v>
       </c>
@@ -1121,7 +1183,9 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1162,18 +1226,28 @@
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>16</v>
+      </c>
       <c r="E9" s="7">
         <v>28908051404847</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -1213,7 +1287,9 @@
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
       <c r="E10" s="7">
         <v>29110011420329</v>
       </c>
@@ -1222,11 +1298,17 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="M10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
